--- a/biology/Botanique/Micromeria_forbesii/Micromeria_forbesii.xlsx
+++ b/biology/Botanique/Micromeria_forbesii/Micromeria_forbesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Micromeria forbesii est une espèce de plantes à fleurs  de la famille des Lamiaceae. C'est une espèce endémique du Cap-Vert, que l'on trouve sur les îles de Santo Antão, São Nicolau, Santiago – dans la Serra Malagueta[1] –, Fogo et Brava, aussi bien sur les rochers des zones humides ou sub-humides que sur les versants semi-arides[2]. 
-Décrite par George Bentham, elle est connue au Cap-Vert sous le nom de « erva-cidreira »[3] – une dénomination qui peut aussi renvoyer à des espèces différentes dans d'autres aires géographiques, par exemple Melissa officinalis en Europe et en Amérique du Nord[4] ou Lippia alba au Brésil[5]. Localement, on rencontre également l'appellation « cidreirinha »[6].
-En médecine traditionnelle, elle est utilisée sous forme d'infusion pour soigner la toux[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Micromeria forbesii est une espèce de plantes à fleurs  de la famille des Lamiaceae. C'est une espèce endémique du Cap-Vert, que l'on trouve sur les îles de Santo Antão, São Nicolau, Santiago – dans la Serra Malagueta –, Fogo et Brava, aussi bien sur les rochers des zones humides ou sub-humides que sur les versants semi-arides. 
+Décrite par George Bentham, elle est connue au Cap-Vert sous le nom de « erva-cidreira » – une dénomination qui peut aussi renvoyer à des espèces différentes dans d'autres aires géographiques, par exemple Melissa officinalis en Europe et en Amérique du Nord ou Lippia alba au Brésil. Localement, on rencontre également l'appellation « cidreirinha ».
+En médecine traditionnelle, elle est utilisée sous forme d'infusion pour soigner la toux.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 janvier 2018)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 janvier 2018) :
 variété Micromeria forbesii var. altitudinum Bolle (1860)
 variété Micromeria forbesii var. forbesii
 variété Micromeria forbesii var. inodora J.A.Schmidt (1852)</t>
@@ -546,7 +560,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Clinopodium forbesii (Benth.) Kuntze
 Satureja forbesii (Benth.) Briq.</t>
